--- a/Assets/Documents_etc/デフォルトデッキリスト.xlsx
+++ b/Assets/Documents_etc/デフォルトデッキリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Documents_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAE1F2-ED5D-4B4C-AE0B-594F8AA9072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C284A5E-BC12-4E3D-A83E-EA5224DFE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,11 @@
     <sheet name="7_4弾_赤青" sheetId="7" r:id="rId7"/>
     <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId8"/>
     <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId9"/>
+    <sheet name="10_4弾_紫鋼" sheetId="12" r:id="rId10"/>
+    <sheet name="11_4弾_緑鋼" sheetId="13" r:id="rId11"/>
+    <sheet name="12_4弾_黄鋼" sheetId="14" r:id="rId12"/>
+    <sheet name="13_4弾_黄緑" sheetId="15" r:id="rId13"/>
+    <sheet name="14_4弾_赤青" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="300">
   <si>
     <t>default-1</t>
     <phoneticPr fontId="1"/>
@@ -1129,6 +1134,427 @@
   </si>
   <si>
     <t>1193</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_紫緑</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_黄鋼(ケン)</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フック船長</t>
+    <rPh sb="3" eb="5">
+      <t>センチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1174</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロビン・フッド</t>
+  </si>
+  <si>
+    <t>3189</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2193</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ローレンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2186</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_緑鋼(モチス)</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディアブロ</t>
+  </si>
+  <si>
+    <t>4071</t>
+  </si>
+  <si>
+    <t>4071</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲発射</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1197</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠された入り江</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>モーフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3081</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背筋がぞく</t>
+    <rPh sb="0" eb="2">
+      <t>セスジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1098</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どっかーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2089</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンス・ジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2098</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>催眠術</t>
+    <rPh sb="0" eb="3">
+      <t>サイミンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイタンの戦い</t>
+    <rPh sb="5" eb="6">
+      <t>タタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3198</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイヤプラチナペシャンコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4196</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>クリキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルーノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4097</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2173</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4069</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンデレラ</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>3028</t>
+  </si>
+  <si>
+    <t>アリエル</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2199</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ラプンツェル</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>3195</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>3190</t>
+  </si>
+  <si>
+    <t>A WHOLE NEW WORLD</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>1198</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>世界一の大悪党</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ダイアクトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_黄鋼(なべ)</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_黄緑</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーヒス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁組</t>
+    <rPh sb="0" eb="2">
+      <t>エングミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3096</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミューズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンダーザシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルシファー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私をわすれたのか</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4090</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2085</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4095</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_赤青(シンゲツ　アイテム）</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウイの釣り針</t>
+    <rPh sb="4" eb="7">
+      <t>ツリバリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2152</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1110</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1139,7 +1565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,16 +1587,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1178,15 +1633,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1470,7 +1952,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1494,292 +1976,2100 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B94B30-D437-47B3-A61A-25FB4AFD4708}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E100)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0268ED-0517-4A01-83C3-DA2A67F1B2AC}">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E100)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE19753-77AC-494A-9828-AE335A588431}">
+  <dimension ref="B2:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E99)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C39F87-DE58-4D44-AA64-B1AA43A9EF8D}">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E100)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E2CF7-9A92-4C2E-95E5-696BA3FC4C3E}">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E97)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +4083,7 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1817,376 +4107,376 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2201,7 +4491,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2225,308 +4515,308 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2541,7 +4831,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2565,325 +4855,325 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2898,7 +5188,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2922,325 +5212,325 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3255,7 +5545,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B16" sqref="B16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3271,7 +5561,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E4:E100)</f>
@@ -3279,342 +5569,342 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3629,7 +5919,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3653,308 +5943,308 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="8">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3969,7 +6259,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3993,308 +6283,308 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="8">
         <v>3</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4308,8 +6598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30FA26-37B4-4B0B-A442-029076AD092B}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4333,257 +6623,274 @@
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="13">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="13">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="13">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="13">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="13">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="13">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="13">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Assets/Documents_etc/デフォルトデッキリスト.xlsx
+++ b/Assets/Documents_etc/デフォルトデッキリスト.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Documents_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C284A5E-BC12-4E3D-A83E-EA5224DFE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933FA08-CE13-443C-BBC6-E4BE8F583BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId1"/>
-    <sheet name="2_3弾_赤青" sheetId="2" r:id="rId2"/>
-    <sheet name="3_3弾_黄鋼" sheetId="3" r:id="rId3"/>
-    <sheet name="4_3弾_紫鋼" sheetId="4" r:id="rId4"/>
-    <sheet name="5_3弾_紫緑" sheetId="5" r:id="rId5"/>
-    <sheet name="6_4弾_紫緑" sheetId="6" r:id="rId6"/>
-    <sheet name="7_4弾_赤青" sheetId="7" r:id="rId7"/>
-    <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId8"/>
-    <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId9"/>
-    <sheet name="10_4弾_紫鋼" sheetId="12" r:id="rId10"/>
-    <sheet name="11_4弾_緑鋼" sheetId="13" r:id="rId11"/>
-    <sheet name="12_4弾_黄鋼" sheetId="14" r:id="rId12"/>
-    <sheet name="13_4弾_黄緑" sheetId="15" r:id="rId13"/>
-    <sheet name="14_4弾_赤青" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
+    <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId2"/>
+    <sheet name="2_3弾_赤青" sheetId="2" r:id="rId3"/>
+    <sheet name="3_3弾_黄鋼" sheetId="3" r:id="rId4"/>
+    <sheet name="4_3弾_紫鋼" sheetId="4" r:id="rId5"/>
+    <sheet name="5_3弾_紫緑" sheetId="5" r:id="rId6"/>
+    <sheet name="6_4弾_紫緑" sheetId="6" r:id="rId7"/>
+    <sheet name="7_4弾_赤青" sheetId="7" r:id="rId8"/>
+    <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId9"/>
+    <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId10"/>
+    <sheet name="10_4弾_紫鋼" sheetId="12" r:id="rId11"/>
+    <sheet name="11_4弾_緑鋼" sheetId="13" r:id="rId12"/>
+    <sheet name="12_4弾_黄鋼" sheetId="14" r:id="rId13"/>
+    <sheet name="13_4弾_黄緑" sheetId="15" r:id="rId14"/>
+    <sheet name="14_4弾_赤青" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="335">
   <si>
     <t>default-1</t>
     <phoneticPr fontId="1"/>
@@ -1555,6 +1556,314 @@
   </si>
   <si>
     <t>1110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のタブ</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ画像の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番を入れ替える</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードリストのアイコン画像を変更する</t>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦結果の記録機能</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦分析</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ詳細</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上のバーの幅を大きくする</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアイコン画像の変更</t>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ枚数のアイコン表示</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更フラグの生成</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ詳細カード選択</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキ枚数の表示</t>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィルター機能の追加</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキから削除時の挙動</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SimLab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキリストのShuffleの修正</t>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemyという表現をplayerに変更する</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキリストにおける並び替えの実装</t>
+    <rPh sb="10" eb="11">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラッシュリストの作成</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムエリアの幅の調整</t>
+    <rPh sb="8" eb="9">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Readyボタンの設置</t>
+    <rPh sb="9" eb="11">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemyインクの位置（右寄せ）</t>
+    <rPh sb="9" eb="11">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミギヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他機種への幅の対応</t>
+    <rPh sb="0" eb="3">
+      <t>ホカキシュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面　</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下のタブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さ</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1565,7 +1874,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,8 +1913,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1624,8 +1940,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1648,11 +1976,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1665,10 +2006,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1948,11 +2291,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7FB30-B0D3-4216-A407-07A81BEF2344}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30FA26-37B4-4B0B-A442-029076AD092B}">
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1965,10 +2587,10 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E4:E100)</f>
@@ -1996,282 +2618,264 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="E11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E19" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B94B30-D437-47B3-A61A-25FB4AFD4708}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -2613,7 +3217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0268ED-0517-4A01-83C3-DA2A67F1B2AC}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -2989,7 +3593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE19753-77AC-494A-9828-AE335A588431}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -3348,7 +3952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C39F87-DE58-4D44-AA64-B1AA43A9EF8D}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -3704,11 +4308,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E2CF7-9A92-4C2E-95E5-696BA3FC4C3E}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3762,7 +4366,7 @@
       <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3779,7 +4383,7 @@
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3796,7 +4400,7 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3813,7 +4417,7 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3830,7 +4434,7 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3847,7 +4451,7 @@
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3864,7 +4468,7 @@
       <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3881,7 +4485,7 @@
       <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3898,7 +4502,7 @@
       <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3915,7 +4519,7 @@
       <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3932,7 +4536,7 @@
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3949,7 +4553,7 @@
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3966,7 +4570,7 @@
       <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3983,7 +4587,7 @@
       <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4000,7 +4604,7 @@
       <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4079,6 +4683,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E100)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180A0D5A-351F-4C6A-8BDB-5B45C518B8C9}">
   <dimension ref="B2:F24"/>
   <sheetViews>
@@ -4486,7 +5414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A9F681-35F6-4E89-A082-5AB906E49EDC}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -4826,7 +5754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DE0B5-4339-40F8-B37F-8A20F3E38D53}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -5183,7 +6111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E00439-557E-421E-AD8B-DCA489357AB0}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -5540,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F82E87-6B5A-4846-85E9-1F7AE88EF8F0}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -5914,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F333EF-EAA6-4FE8-BC91-D490E7CB5680}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -6254,7 +7182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A8CD3-1D1C-4717-8833-83CE7FED1153}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -6592,310 +7520,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30FA26-37B4-4B0B-A442-029076AD092B}">
-  <dimension ref="B2:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="2">
-        <f>SUM(E4:E100)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="13">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="13">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="13">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="13">
-        <v>4</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="13">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="13">
-        <v>4</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="13">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="13">
-        <v>3</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="13">
-        <v>4</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Documents_etc/デフォルトデッキリスト.xlsx
+++ b/Assets/Documents_etc/デフォルトデッキリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Documents_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933FA08-CE13-443C-BBC6-E4BE8F583BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F5D5A-B902-4C5C-AB18-0DA669C6BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="337">
   <si>
     <t>default-1</t>
     <phoneticPr fontId="1"/>
@@ -1863,6 +1863,20 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デッキリストにおける拡大表示</t>
+    <rPh sb="10" eb="12">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2292,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7FB30-B0D3-4216-A407-07A81BEF2344}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2513,7 +2527,7 @@
         <v>317</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2524,44 +2538,63 @@
         <v>317</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="C21" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="14" t="s">
         <v>317</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Documents_etc/デフォルトデッキリスト.xlsx
+++ b/Assets/Documents_etc/デフォルトデッキリスト.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Documents_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F5D5A-B902-4C5C-AB18-0DA669C6BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0829869E-23C0-4FD2-9AE8-5C566974FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
-    <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId2"/>
-    <sheet name="2_3弾_赤青" sheetId="2" r:id="rId3"/>
-    <sheet name="3_3弾_黄鋼" sheetId="3" r:id="rId4"/>
-    <sheet name="4_3弾_紫鋼" sheetId="4" r:id="rId5"/>
-    <sheet name="5_3弾_紫緑" sheetId="5" r:id="rId6"/>
-    <sheet name="6_4弾_紫緑" sheetId="6" r:id="rId7"/>
-    <sheet name="7_4弾_赤青" sheetId="7" r:id="rId8"/>
-    <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId9"/>
-    <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId10"/>
-    <sheet name="10_4弾_紫鋼" sheetId="12" r:id="rId11"/>
-    <sheet name="11_4弾_緑鋼" sheetId="13" r:id="rId12"/>
-    <sheet name="12_4弾_黄鋼" sheetId="14" r:id="rId13"/>
-    <sheet name="13_4弾_黄緑" sheetId="15" r:id="rId14"/>
-    <sheet name="14_4弾_赤青" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId2"/>
+    <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId3"/>
+    <sheet name="2_3弾_赤青" sheetId="2" r:id="rId4"/>
+    <sheet name="3_3弾_黄鋼" sheetId="3" r:id="rId5"/>
+    <sheet name="4_3弾_紫鋼" sheetId="4" r:id="rId6"/>
+    <sheet name="5_3弾_紫緑" sheetId="5" r:id="rId7"/>
+    <sheet name="6_4弾_紫緑" sheetId="6" r:id="rId8"/>
+    <sheet name="7_4弾_赤青" sheetId="7" r:id="rId9"/>
+    <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId10"/>
+    <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId11"/>
+    <sheet name="10_4弾_紫鋼" sheetId="12" r:id="rId12"/>
+    <sheet name="11_4弾_緑鋼" sheetId="13" r:id="rId13"/>
+    <sheet name="12_4弾_黄鋼" sheetId="14" r:id="rId14"/>
+    <sheet name="13_4弾_黄緑" sheetId="15" r:id="rId15"/>
+    <sheet name="14_4弾_赤青" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="368">
   <si>
     <t>default-1</t>
     <phoneticPr fontId="1"/>
@@ -1693,16 +1694,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デッキ枚数の表示</t>
-    <rPh sb="3" eb="5">
-      <t>マイスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィルター機能の追加</t>
     <rPh sb="5" eb="7">
       <t>キノウ</t>
@@ -1879,6 +1870,306 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置目的</t>
+  </si>
+  <si>
+    <t>おすすめのプリセット</t>
+  </si>
+  <si>
+    <t>理由</t>
+  </si>
+  <si>
+    <r>
+      <t>画面の中央に固定サイズで表示したい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ボタンやポップアップなど）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">❇️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中央 / 中央</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>middle center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>解像度に関係なく中央に固定され、崩れにくい</t>
+  </si>
+  <si>
+    <r>
+      <t>画面いっぱいに引き伸ばしたい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（背景や画像など）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ストレッチ / ストレッチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（画像右下の選択）</t>
+    </r>
+  </si>
+  <si>
+    <t>画面サイズに応じて自動で伸びる（Left/Right/Top/Bottomでマージンも取れる）</t>
+  </si>
+  <si>
+    <r>
+      <t>上部に固定したい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ナビバー、タイトルなど）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⬆️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ストレッチ横 / 上</t>
+    </r>
+  </si>
+  <si>
+    <t>横方向にはストレッチ、高さは固定で、上部に固定される</t>
+  </si>
+  <si>
+    <t>左上など特定の隅に固定サイズで置きたい</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📌 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左 / 上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> などのコーナー系</t>
+    </r>
+  </si>
+  <si>
+    <t>小さなボタン・アイコンなどの固定表示に便利</t>
+  </si>
+  <si>
+    <t>下部にボタンを並べたい（複数個）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔻 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ストレッチ横 / 下</t>
+    </r>
+  </si>
+  <si>
+    <t>スクリーンサイズに応じて横幅が自動調整され、見た目も崩れにくい</t>
+  </si>
+  <si>
+    <t>🔧 補足：Canvas Scalerとの関係</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Canvas Scaler を </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scale With Screen Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> にしている場合は、</t>
+    </r>
+  </si>
+  <si>
+    <t>この「Stretch / Stretch」指定 + マージン調整（Top/Bottom/Left/Right）</t>
+  </si>
+  <si>
+    <r>
+      <t>が最も</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>レスポンシブ対応しやすい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>Anchor Preset</t>
+  </si>
+  <si>
+    <t>固定表示したい → ポップアップ、ボタン、中央配置</t>
+  </si>
+  <si>
+    <t>中央／中央</t>
+  </si>
+  <si>
+    <t>画面いっぱいにしたい → 背景、リストパネル</t>
+  </si>
+  <si>
+    <t>ストレッチ／ストレッチ</t>
+  </si>
+  <si>
+    <t>上や下に並べたい → ヘッダー、フッター</t>
+  </si>
+  <si>
+    <t>横ストレッチ＋上／下</t>
+  </si>
+  <si>
+    <t>もし迷ったら以下の考えでOK：</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +2179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1934,8 +2225,40 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1963,6 +2286,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2007,7 +2342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2023,9 +2358,26 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2041,6 +2393,151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16385" name="AutoShape 1" descr="画像をアップロードしました">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09981AC8-C33B-852C-8182-3F195B8F884E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16386" name="AutoShape 2" descr="画像をアップロードしました">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3959002-B9F0-F31C-A1EC-2A6B7D0D7689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2682240" y="1143000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360395</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>173759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A311D62-C970-213E-4E66-81A72F951760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="529590" y="154305"/>
+          <a:ext cx="2505425" cy="2892194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2308,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7FB30-B0D3-4216-A407-07A81BEF2344}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2326,43 +2823,47 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="14" t="s">
@@ -2420,59 +2921,73 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="14" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="14" t="s">
@@ -2486,26 +3001,26 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2513,10 +3028,10 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -2524,10 +3039,10 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2535,62 +3050,64 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
-        <v>334</v>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -2603,6 +3120,346 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A8CD3-1D1C-4717-8833-83CE7FED1153}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E100)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30FA26-37B4-4B0B-A442-029076AD092B}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -2908,7 +3765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B94B30-D437-47B3-A61A-25FB4AFD4708}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -3250,7 +4107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0268ED-0517-4A01-83C3-DA2A67F1B2AC}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -3626,7 +4483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE19753-77AC-494A-9828-AE335A588431}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -3985,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C39F87-DE58-4D44-AA64-B1AA43A9EF8D}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -4341,7 +5198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E2CF7-9A92-4C2E-95E5-696BA3FC4C3E}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -4716,6 +5573,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713125EC-F5CB-471C-85FD-799B67B3E8BE}">
+  <dimension ref="G2:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="8" width="29.69921875" customWidth="1"/>
+    <col min="9" max="9" width="64.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:9">
+      <c r="G2" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" ht="36">
+      <c r="G3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9" ht="36">
+      <c r="G4" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9">
+      <c r="G5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9">
+      <c r="G6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9">
+      <c r="G7" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" ht="28.8">
+      <c r="G9" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9">
+      <c r="G11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8">
+      <c r="G18" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F19"/>
   <sheetViews>
@@ -5039,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180A0D5A-351F-4C6A-8BDB-5B45C518B8C9}">
   <dimension ref="B2:F24"/>
   <sheetViews>
@@ -5447,7 +6452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A9F681-35F6-4E89-A082-5AB906E49EDC}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -5787,7 +6792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2DE0B5-4339-40F8-B37F-8A20F3E38D53}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -6144,7 +7149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E00439-557E-421E-AD8B-DCA489357AB0}">
   <dimension ref="B2:F21"/>
   <sheetViews>
@@ -6501,7 +7506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F82E87-6B5A-4846-85E9-1F7AE88EF8F0}">
   <dimension ref="B2:F22"/>
   <sheetViews>
@@ -6875,7 +7880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F333EF-EAA6-4FE8-BC91-D490E7CB5680}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -7213,344 +8218,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A8CD3-1D1C-4717-8833-83CE7FED1153}">
-  <dimension ref="B2:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="3" width="8.796875" style="1"/>
-    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="2">
-        <f>SUM(E4:E100)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Documents_etc/デフォルトデッキリスト.xlsx
+++ b/Assets/Documents_etc/デフォルトデッキリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Documents_etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0829869E-23C0-4FD2-9AE8-5C566974FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B2824A-BFD3-49C2-ACA5-0F11F73DC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -5574,10 +5574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713125EC-F5CB-471C-85FD-799B67B3E8BE}">
-  <dimension ref="G2:I20"/>
+  <dimension ref="G2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5658,58 +5658,55 @@
         <v>355</v>
       </c>
     </row>
+    <row r="10" spans="7:9">
+      <c r="G10" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="11" spans="7:9">
-      <c r="G11" t="s">
-        <v>356</v>
+      <c r="G11" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="7:9">
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="7:9">
-      <c r="G13" s="23" t="s">
-        <v>357</v>
+      <c r="G12" s="23" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="7:9">
-      <c r="G14" s="23" t="s">
-        <v>358</v>
+      <c r="G14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="7:9">
-      <c r="G16" t="s">
-        <v>367</v>
+      <c r="G16" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>360</v>
+      <c r="G17" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="7:8">
       <c r="G18" s="21" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8">
-      <c r="G19" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8">
-      <c r="G20" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="H20" s="21" t="s">
         <v>366</v>
       </c>
     </row>
